--- a/SERCO-TUG/results.xlsx
+++ b/SERCO-TUG/results.xlsx
@@ -59,12 +59,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2271,6 +2274,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13" customWidth="1" style="3" min="4" max="4"/>
+    <col width="13" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13" customWidth="1" style="3" min="6" max="6"/>
+    <col width="13" customWidth="1" style="3" min="8" max="8"/>
+    <col width="13" customWidth="1" style="3" min="9" max="9"/>
+    <col width="13" customWidth="1" style="3" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -2328,10 +2342,10 @@
       <c r="G2" t="n">
         <v>169.2873122388889</v>
       </c>
-      <c r="H2.0" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2.0" t="n">
+      <c r="I2" t="n">
         <v>235.3797588068789</v>
       </c>
     </row>
@@ -2361,6 +2375,12 @@
       <c r="G3" t="n">
         <v>110.3666201713889</v>
       </c>
+      <c r="H3.0" t="n">
+        <v>19.96308</v>
+      </c>
+      <c r="I3.0" t="n">
+        <v>598.2789926021113</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2368,11 +2388,6 @@
           <t>Trip 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>02-02</t>
-        </is>
-      </c>
       <c r="C4" t="n">
         <v>0.2774997222222222</v>
       </c>
@@ -2395,11 +2410,6 @@
           <t>Trip 4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>02-02</t>
-        </is>
-      </c>
       <c r="C5" t="n">
         <v>1.811111111111111</v>
       </c>
@@ -2422,11 +2432,6 @@
           <t>Trip 5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>02-02</t>
-        </is>
-      </c>
       <c r="C6" t="n">
         <v>1.318611111111111</v>
       </c>
@@ -2469,6 +2474,12 @@
       <c r="G7" t="n">
         <v>428.2980651725</v>
       </c>
+      <c r="H7.0" t="n">
+        <v>15.29562527777778</v>
+      </c>
+      <c r="I7.0" t="n">
+        <v>511.5087740618281</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2476,11 +2487,6 @@
           <t>Trip 7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>03-02</t>
-        </is>
-      </c>
       <c r="C8" t="n">
         <v>0.5311105555555555</v>
       </c>
@@ -2523,6 +2529,12 @@
       <c r="G9" t="n">
         <v>132.9426997233333</v>
       </c>
+      <c r="H9.0" t="n">
+        <v>23.83664055555556</v>
+      </c>
+      <c r="I9.0" t="n">
+        <v>500.168620007151</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2530,11 +2542,6 @@
           <t>Trip 10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>04-02</t>
-        </is>
-      </c>
       <c r="C10" t="n">
         <v>2.885555555555555</v>
       </c>
@@ -2557,11 +2564,6 @@
           <t>Trip 11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>04-02</t>
-        </is>
-      </c>
       <c r="C11" t="n">
         <v>0.2494444444444444</v>
       </c>
@@ -2604,6 +2606,12 @@
       <c r="G12" t="n">
         <v>169.3884568372222</v>
       </c>
+      <c r="H12.0" t="n">
+        <v>13.92822055555555</v>
+      </c>
+      <c r="I12.0" t="n">
+        <v>448.4274068557453</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2631,6 +2639,12 @@
       <c r="G13" t="n">
         <v>124.5344426672222</v>
       </c>
+      <c r="H13.0" t="n">
+        <v>22.24077194444444</v>
+      </c>
+      <c r="I13.0" t="n">
+        <v>208.3632598934118</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2658,6 +2672,12 @@
       <c r="G14" t="n">
         <v>193.5261132388889</v>
       </c>
+      <c r="H14.0" t="n">
+        <v>21.35485166666667</v>
+      </c>
+      <c r="I14.0" t="n">
+        <v>472.0041050347856</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2685,6 +2705,12 @@
       <c r="G15" t="n">
         <v>93.23065847333334</v>
       </c>
+      <c r="H15.0" t="n">
+        <v>29.43345861111111</v>
+      </c>
+      <c r="I15.0" t="n">
+        <v>145.5463991936819</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2712,6 +2738,12 @@
       <c r="G16" t="n">
         <v>193.8882349988889</v>
       </c>
+      <c r="H16.0" t="n">
+        <v>23.54935666666667</v>
+      </c>
+      <c r="I16.0" t="n">
+        <v>1005.847775626425</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2719,11 +2751,6 @@
           <t>Trip 18</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
       <c r="C17" t="n">
         <v>0.7297219444444445</v>
       </c>
@@ -2746,11 +2773,6 @@
           <t>Trip 19</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
       <c r="C18" t="n">
         <v>1.94</v>
       </c>
@@ -2793,6 +2815,12 @@
       <c r="G19" t="n">
         <v>70.25490951666666</v>
       </c>
+      <c r="H19.0" t="n">
+        <v>14.47349555555556</v>
+      </c>
+      <c r="I19.0" t="n">
+        <v>41.85755292711956</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2820,6 +2848,12 @@
       <c r="G20" t="n">
         <v>238.2769932538889</v>
       </c>
+      <c r="H20.0" t="n">
+        <v>23.85865527777778</v>
+      </c>
+      <c r="I20.0" t="n">
+        <v>457.8345346310019</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2847,6 +2881,12 @@
       <c r="G21" t="n">
         <v>61.92750327527778</v>
       </c>
+      <c r="H21.0" t="n">
+        <v>28.16782055555555</v>
+      </c>
+      <c r="I21.0" t="n">
+        <v>894.9659266487342</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2854,11 +2894,6 @@
           <t>Trip 27</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>19-02</t>
-        </is>
-      </c>
       <c r="C22" t="n">
         <v>0.7794452777777777</v>
       </c>
@@ -2881,11 +2916,6 @@
           <t>Trip 28</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>19-02</t>
-        </is>
-      </c>
       <c r="C23" t="n">
         <v>2.109999722222222</v>
       </c>
@@ -2928,6 +2958,12 @@
       <c r="G24" t="n">
         <v>54.74240011638889</v>
       </c>
+      <c r="H24.0" t="n">
+        <v>10.78825</v>
+      </c>
+      <c r="I24.0" t="n">
+        <v>234.515397511714</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2935,11 +2971,6 @@
           <t>Trip 30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>20-02</t>
-        </is>
-      </c>
       <c r="C25" t="n">
         <v>2.001383888888889</v>
       </c>
@@ -2982,6 +3013,12 @@
       <c r="G26" t="n">
         <v>269.733323215</v>
       </c>
+      <c r="H26.0" t="n">
+        <v>22.06193444444444</v>
+      </c>
+      <c r="I26.0" t="n">
+        <v>703.2983644786177</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2989,11 +3026,6 @@
           <t>Trip 33</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>22-02</t>
-        </is>
-      </c>
       <c r="C27" t="n">
         <v>0.2830552777777778</v>
       </c>
@@ -3016,11 +3048,6 @@
           <t>Trip 34</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>22-02</t>
-        </is>
-      </c>
       <c r="C28" t="n">
         <v>0.9827777777777778</v>
       </c>
@@ -3063,6 +3090,12 @@
       <c r="G29" t="n">
         <v>138.0112086555555</v>
       </c>
+      <c r="H29.0" t="n">
+        <v>18.60271083333333</v>
+      </c>
+      <c r="I29.0" t="n">
+        <v>513.7033494652303</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3070,11 +3103,6 @@
           <t>Trip 36</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>23-02</t>
-        </is>
-      </c>
       <c r="C30" t="n">
         <v>1.535556111111111</v>
       </c>
@@ -3117,6 +3145,12 @@
       <c r="G31" t="n">
         <v>308.7708649383333</v>
       </c>
+      <c r="H31.0" t="n">
+        <v>23.90431666666667</v>
+      </c>
+      <c r="I31.0" t="n">
+        <v>798.1247673398506</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3124,11 +3158,6 @@
           <t>Trip 38</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>24-02</t>
-        </is>
-      </c>
       <c r="C32" t="n">
         <v>0.865</v>
       </c>
@@ -3151,11 +3180,6 @@
           <t>Trip 39</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>24-02</t>
-        </is>
-      </c>
       <c r="C33" t="n">
         <v>1.302222222222222</v>
       </c>
@@ -3198,6 +3222,12 @@
       <c r="G34" t="n">
         <v>158.358051665</v>
       </c>
+      <c r="H34.0" t="n">
+        <v>18.45900277777778</v>
+      </c>
+      <c r="I34.0" t="n">
+        <v>518.7885898847807</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3205,11 +3235,6 @@
           <t>Trip 41</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>25-02</t>
-        </is>
-      </c>
       <c r="C35" t="n">
         <v>0.2769441666666667</v>
       </c>
@@ -3232,11 +3257,6 @@
           <t>Trip 42</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>25-02</t>
-        </is>
-      </c>
       <c r="C36" t="n">
         <v>0.3702777777777778</v>
       </c>
@@ -3259,11 +3279,6 @@
           <t>Trip 43</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>25-02</t>
-        </is>
-      </c>
       <c r="C37" t="n">
         <v>1.1722225</v>
       </c>
@@ -3286,11 +3301,6 @@
           <t>Trip 44</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>25-02</t>
-        </is>
-      </c>
       <c r="C38" t="n">
         <v>0.4225</v>
       </c>
@@ -3333,6 +3343,12 @@
       <c r="G39" t="n">
         <v>136.5821605008333</v>
       </c>
+      <c r="H39.0" t="n">
+        <v>16.43696861111111</v>
+      </c>
+      <c r="I39.0" t="n">
+        <v>283.4538369956304</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3340,11 +3356,6 @@
           <t>Trip 46</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>26-02</t>
-        </is>
-      </c>
       <c r="C40" t="n">
         <v>1.078055</v>
       </c>
@@ -3362,43 +3373,61 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="54">
+    <mergeCell ref="B2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SERCO-TUG/results.xlsx
+++ b/SERCO-TUG/results.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="raw_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="formatted_table" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Histogram" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="formatted_table" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,9 +19,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,22 +526,22 @@
         <v>1.990555833333333</v>
       </c>
       <c r="E2" t="n">
-        <v>235.3797588068789</v>
+        <v>247.8602271923731</v>
       </c>
       <c r="F2" t="n">
         <v>169.2873122388889</v>
       </c>
       <c r="G2" t="n">
-        <v>112.1026004588889</v>
+        <v>113.0985614438889</v>
       </c>
       <c r="H2" t="n">
-        <v>57.18471178</v>
+        <v>56.188750795</v>
       </c>
       <c r="I2" t="n">
-        <v>1.162222222222222</v>
+        <v>1.175</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8286111111111111</v>
+        <v>0.8158333333333333</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="b">
@@ -562,22 +569,22 @@
         <v>1.443888055555556</v>
       </c>
       <c r="E3" t="n">
-        <v>74.00035070022064</v>
+        <v>104.1517227084266</v>
       </c>
       <c r="F3" t="n">
         <v>110.3666201713889</v>
       </c>
       <c r="G3" t="n">
-        <v>75.25455110194446</v>
+        <v>75.6790691575</v>
       </c>
       <c r="H3" t="n">
-        <v>35.11206906944444</v>
+        <v>34.68755101388889</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9277777777777778</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5163888888888889</v>
+        <v>0.5108333333333334</v>
       </c>
       <c r="K3" t="n">
         <v>15.51117833333333</v>
@@ -607,22 +614,22 @@
         <v>0.2774997222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>27.66098120861863</v>
+        <v>30.63564075847183</v>
       </c>
       <c r="F4" t="n">
         <v>21.87316791777778</v>
       </c>
       <c r="G4" t="n">
-        <v>15.42944756138889</v>
+        <v>15.49648645027778</v>
       </c>
       <c r="H4" t="n">
-        <v>6.443720356388888</v>
+        <v>6.376681467499999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1825</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09527777777777778</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="K4" t="n">
         <v>0.8975005555555555</v>
@@ -652,22 +659,22 @@
         <v>1.811111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>206.7110992545219</v>
+        <v>213.8235427564449</v>
       </c>
       <c r="F5" t="n">
         <v>149.925265625</v>
       </c>
       <c r="G5" t="n">
-        <v>85.20829152277777</v>
+        <v>86.06341702833333</v>
       </c>
       <c r="H5" t="n">
-        <v>64.71697410222222</v>
+        <v>63.86184859666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8777777777777778</v>
+        <v>0.8886111111111111</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9336111111111111</v>
+        <v>0.9227777777777778</v>
       </c>
       <c r="K5" t="n">
         <v>2.707178888888889</v>
@@ -697,22 +704,22 @@
         <v>1.318611111111111</v>
       </c>
       <c r="E6" t="n">
-        <v>289.9065614387501</v>
+        <v>298.5105375948937</v>
       </c>
       <c r="F6" t="n">
         <v>123.9997099955555</v>
       </c>
       <c r="G6" t="n">
-        <v>103.89863229</v>
+        <v>104.02664479</v>
       </c>
       <c r="H6" t="n">
-        <v>20.10107770555556</v>
+        <v>19.97306520555556</v>
       </c>
       <c r="I6" t="n">
-        <v>1.020833333333333</v>
+        <v>1.0225</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2980555555555556</v>
+        <v>0.2963888888888889</v>
       </c>
       <c r="K6" t="n">
         <v>0.8472222222222222</v>
@@ -742,22 +749,22 @@
         <v>5.225277222222222</v>
       </c>
       <c r="E7" t="n">
-        <v>492.4581661609855</v>
+        <v>536.6401508648818</v>
       </c>
       <c r="F7" t="n">
         <v>428.2980651725</v>
       </c>
       <c r="G7" t="n">
-        <v>281.4559281569444</v>
+        <v>289.1497289977777</v>
       </c>
       <c r="H7" t="n">
-        <v>146.8421370155556</v>
+        <v>139.1483361747222</v>
       </c>
       <c r="I7" t="n">
-        <v>3.190277777777778</v>
+        <v>3.286666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>2.035277777777778</v>
+        <v>1.938888888888889</v>
       </c>
       <c r="K7" t="n">
         <v>14.37368027777778</v>
@@ -787,22 +794,22 @@
         <v>0.5311105555555555</v>
       </c>
       <c r="E8" t="n">
-        <v>19.05060790084272</v>
+        <v>21.18294752403787</v>
       </c>
       <c r="F8" t="n">
         <v>39.17248538138889</v>
       </c>
       <c r="G8" t="n">
-        <v>17.54121706916667</v>
+        <v>17.72619068027778</v>
       </c>
       <c r="H8" t="n">
-        <v>21.63126831222222</v>
+        <v>21.44629470111111</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2127777777777778</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3186111111111111</v>
+        <v>0.3161111111111111</v>
       </c>
       <c r="K8" t="n">
         <v>0.921945</v>
@@ -832,22 +839,22 @@
         <v>1.857500277777778</v>
       </c>
       <c r="E9" t="n">
-        <v>42.75501875538534</v>
+        <v>50.41875575559405</v>
       </c>
       <c r="F9" t="n">
         <v>132.9426997233333</v>
       </c>
       <c r="G9" t="n">
-        <v>62.71543156277777</v>
+        <v>63.66764759638889</v>
       </c>
       <c r="H9" t="n">
-        <v>70.22726816055555</v>
+        <v>69.27505212694444</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8325</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="J9" t="n">
-        <v>1.025277777777778</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="K9" t="n">
         <v>20.03330722222222</v>
@@ -877,22 +884,22 @@
         <v>2.885555555555555</v>
       </c>
       <c r="E10" t="n">
-        <v>449.7490645794013</v>
+        <v>461.2733000348517</v>
       </c>
       <c r="F10" t="n">
         <v>250.9357109444445</v>
       </c>
       <c r="G10" t="n">
-        <v>193.5490483183333</v>
+        <v>194.9443788738889</v>
       </c>
       <c r="H10" t="n">
-        <v>57.38666262611111</v>
+        <v>55.99133207055556</v>
       </c>
       <c r="I10" t="n">
-        <v>2.068333333333333</v>
+        <v>2.086388888888889</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8175</v>
+        <v>0.7994444444444444</v>
       </c>
       <c r="K10" t="n">
         <v>2.585555277777778</v>
@@ -922,22 +929,22 @@
         <v>0.2494444444444444</v>
       </c>
       <c r="E11" t="n">
-        <v>7.664536672364425</v>
+        <v>8.993300544810868</v>
       </c>
       <c r="F11" t="n">
         <v>18.55288895777777</v>
       </c>
       <c r="G11" t="n">
-        <v>8.022651653333334</v>
+        <v>8.066372486666666</v>
       </c>
       <c r="H11" t="n">
-        <v>10.53023730444444</v>
+        <v>10.48651647111111</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09694444444444444</v>
+        <v>0.0975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.1522222222222222</v>
       </c>
       <c r="K11" t="n">
         <v>1.217778055555556</v>
@@ -967,22 +974,22 @@
         <v>1.612218611111111</v>
       </c>
       <c r="E12" t="n">
-        <v>448.4274068557453</v>
+        <v>460.2606049762471</v>
       </c>
       <c r="F12" t="n">
         <v>169.3884568372222</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9716355402778</v>
+        <v>149.7357675266667</v>
       </c>
       <c r="H12" t="n">
-        <v>20.41682129694444</v>
+        <v>19.65268931055556</v>
       </c>
       <c r="I12" t="n">
-        <v>1.319722222222222</v>
+        <v>1.329444444444444</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2927777777777778</v>
+        <v>0.2830555555555556</v>
       </c>
       <c r="K12" t="n">
         <v>13.92822055555555</v>
@@ -1012,22 +1019,22 @@
         <v>1.4502775</v>
       </c>
       <c r="E13" t="n">
-        <v>208.3632598934118</v>
+        <v>210.290868330168</v>
       </c>
       <c r="F13" t="n">
         <v>124.5344426672222</v>
       </c>
       <c r="G13" t="n">
-        <v>77.93379907777778</v>
+        <v>81.40084579555557</v>
       </c>
       <c r="H13" t="n">
-        <v>46.60064358944445</v>
+        <v>43.13359687166667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7905555555555556</v>
+        <v>0.8338888888888889</v>
       </c>
       <c r="J13" t="n">
-        <v>0.66</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="K13" t="n">
         <v>22.24077194444444</v>
@@ -1057,22 +1064,22 @@
         <v>2.176111111111111</v>
       </c>
       <c r="E14" t="n">
-        <v>472.0041050347856</v>
+        <v>476.7858819694233</v>
       </c>
       <c r="F14" t="n">
         <v>193.5261132388889</v>
       </c>
       <c r="G14" t="n">
-        <v>158.6260938483333</v>
+        <v>159.3287852194445</v>
       </c>
       <c r="H14" t="n">
-        <v>34.90001939055556</v>
+        <v>34.19732801944445</v>
       </c>
       <c r="I14" t="n">
-        <v>1.662777777777778</v>
+        <v>1.671944444444444</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5136111111111111</v>
+        <v>0.5044444444444445</v>
       </c>
       <c r="K14" t="n">
         <v>21.35485166666667</v>
@@ -1102,22 +1109,22 @@
         <v>1.108888611111111</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5463991936819</v>
+        <v>145.955422498293</v>
       </c>
       <c r="F15" t="n">
         <v>93.23065847333334</v>
       </c>
       <c r="G15" t="n">
-        <v>69.39842341555556</v>
+        <v>69.48837025944445</v>
       </c>
       <c r="H15" t="n">
-        <v>23.83223505777778</v>
+        <v>23.74228821388889</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7622222222222222</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3480555555555556</v>
+        <v>0.3469444444444444</v>
       </c>
       <c r="K15" t="n">
         <v>29.43345861111111</v>
@@ -1147,22 +1154,22 @@
         <v>2.365555833333334</v>
       </c>
       <c r="E16" t="n">
-        <v>270.7519404857492</v>
+        <v>284.6421362352484</v>
       </c>
       <c r="F16" t="n">
         <v>193.8882349988889</v>
       </c>
       <c r="G16" t="n">
-        <v>140.7554474722222</v>
+        <v>141.7436656819444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.13278752666667</v>
+        <v>52.14456931694445</v>
       </c>
       <c r="I16" t="n">
-        <v>1.628611111111111</v>
+        <v>1.641111111111111</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7372222222222222</v>
+        <v>0.7247222222222223</v>
       </c>
       <c r="K16" t="n">
         <v>16.64116277777778</v>
@@ -1192,22 +1199,22 @@
         <v>0.7297219444444445</v>
       </c>
       <c r="E17" t="n">
-        <v>81.77545222439068</v>
+        <v>84.50726865542947</v>
       </c>
       <c r="F17" t="n">
         <v>64.82083357222223</v>
       </c>
       <c r="G17" t="n">
-        <v>45.36631175916666</v>
+        <v>45.77237564805556</v>
       </c>
       <c r="H17" t="n">
-        <v>19.45452181305556</v>
+        <v>19.04845792416667</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4430555555555555</v>
+        <v>0.4483333333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2869444444444444</v>
+        <v>0.2816666666666667</v>
       </c>
       <c r="K17" t="n">
         <v>2.475138333333333</v>
@@ -1237,22 +1244,22 @@
         <v>1.94</v>
       </c>
       <c r="E18" t="n">
-        <v>653.3203829162856</v>
+        <v>661.5817870268903</v>
       </c>
       <c r="F18" t="n">
         <v>240.8085077147222</v>
       </c>
       <c r="G18" t="n">
-        <v>212.1407761216666</v>
+        <v>212.3054038994445</v>
       </c>
       <c r="H18" t="n">
-        <v>28.66773159305556</v>
+        <v>28.50310381527778</v>
       </c>
       <c r="I18" t="n">
-        <v>1.516666666666667</v>
+        <v>1.518888888888889</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4213888888888889</v>
       </c>
       <c r="K18" t="n">
         <v>4.433055555555556</v>
@@ -1282,22 +1289,22 @@
         <v>1.006388611111111</v>
       </c>
       <c r="E19" t="n">
-        <v>41.85755292711956</v>
+        <v>46.56100635834164</v>
       </c>
       <c r="F19" t="n">
         <v>70.25490951666666</v>
       </c>
       <c r="G19" t="n">
-        <v>26.10458127472222</v>
+        <v>26.12283683027778</v>
       </c>
       <c r="H19" t="n">
-        <v>44.15032824194444</v>
+        <v>44.1320726863889</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3394444444444444</v>
+        <v>0.3397222222222222</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6672222222222223</v>
+        <v>0.6669444444444445</v>
       </c>
       <c r="K19" t="n">
         <v>14.47349555555556</v>
@@ -1327,22 +1334,22 @@
         <v>2.722499722222222</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8345346310019</v>
+        <v>462.9194864459968</v>
       </c>
       <c r="F20" t="n">
         <v>238.2769932538889</v>
       </c>
       <c r="G20" t="n">
-        <v>144.9404312169444</v>
+        <v>146.1094116458333</v>
       </c>
       <c r="H20" t="n">
-        <v>93.33656203694446</v>
+        <v>92.16758160805557</v>
       </c>
       <c r="I20" t="n">
-        <v>1.330277777777778</v>
+        <v>1.345555555555556</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3925</v>
+        <v>1.377222222222222</v>
       </c>
       <c r="K20" t="n">
         <v>23.85865527777778</v>
@@ -1372,22 +1379,22 @@
         <v>0.8563894444444444</v>
       </c>
       <c r="E21" t="n">
-        <v>45.99493817642374</v>
+        <v>53.82070408093556</v>
       </c>
       <c r="F21" t="n">
         <v>61.92750327527778</v>
       </c>
       <c r="G21" t="n">
-        <v>41.19798962277778</v>
+        <v>41.86257977444444</v>
       </c>
       <c r="H21" t="n">
-        <v>20.7295136525</v>
+        <v>20.06492350083333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5516666666666666</v>
+        <v>0.5605555555555556</v>
       </c>
       <c r="J21" t="n">
-        <v>0.305</v>
+        <v>0.2961111111111111</v>
       </c>
       <c r="K21" t="n">
         <v>21.22671083333333</v>
@@ -1417,22 +1424,22 @@
         <v>0.7794452777777777</v>
       </c>
       <c r="E22" t="n">
-        <v>57.38468038612484</v>
+        <v>59.52424379708371</v>
       </c>
       <c r="F22" t="n">
         <v>60.03609785083334</v>
       </c>
       <c r="G22" t="n">
-        <v>33.97527270916667</v>
+        <v>34.27953634666667</v>
       </c>
       <c r="H22" t="n">
-        <v>26.06082514166667</v>
+        <v>25.75656150416667</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3938888888888889</v>
+        <v>0.3977777777777778</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3858333333333333</v>
+        <v>0.3819444444444444</v>
       </c>
       <c r="K22" t="n">
         <v>0.8549991666666666</v>
@@ -1462,22 +1469,22 @@
         <v>2.109999722222222</v>
       </c>
       <c r="E23" t="n">
-        <v>791.5863080861857</v>
+        <v>810.7876629581712</v>
       </c>
       <c r="F23" t="n">
         <v>271.9394265372222</v>
       </c>
       <c r="G23" t="n">
-        <v>251.5430026591667</v>
+        <v>251.7171731841667</v>
       </c>
       <c r="H23" t="n">
-        <v>20.39642387805555</v>
+        <v>20.22225335305556</v>
       </c>
       <c r="I23" t="n">
-        <v>1.805555555555556</v>
+        <v>1.807777777777778</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3047222222222222</v>
+        <v>0.3025</v>
       </c>
       <c r="K23" t="n">
         <v>6.086110555555556</v>
@@ -1507,7 +1514,7 @@
         <v>0.7627777777777778</v>
       </c>
       <c r="E24" t="n">
-        <v>44.00107686675825</v>
+        <v>47.9459248239507</v>
       </c>
       <c r="F24" t="n">
         <v>54.74240011638889</v>
@@ -1552,22 +1559,22 @@
         <v>2.001383888888889</v>
       </c>
       <c r="E25" t="n">
-        <v>190.5143206449558</v>
+        <v>201.4239761657175</v>
       </c>
       <c r="F25" t="n">
         <v>160.0519624394444</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1521689572222</v>
+        <v>122.1240760433333</v>
       </c>
       <c r="H25" t="n">
-        <v>45.89979348222222</v>
+        <v>37.92788639611111</v>
       </c>
       <c r="I25" t="n">
-        <v>1.345277777777778</v>
+        <v>1.445</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6563888888888889</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="K25" t="n">
         <v>0.7541719444444445</v>
@@ -1597,22 +1604,22 @@
         <v>2.585277777777778</v>
       </c>
       <c r="E26" t="n">
-        <v>553.7045354961223</v>
+        <v>562.3704367468663</v>
       </c>
       <c r="F26" t="n">
         <v>269.733323215</v>
       </c>
       <c r="G26" t="n">
-        <v>187.0965766530556</v>
+        <v>188.7857564091667</v>
       </c>
       <c r="H26" t="n">
-        <v>82.63674656194445</v>
+        <v>80.94756680583333</v>
       </c>
       <c r="I26" t="n">
-        <v>1.393333333333333</v>
+        <v>1.415277777777778</v>
       </c>
       <c r="J26" t="n">
-        <v>1.192222222222222</v>
+        <v>1.170277777777778</v>
       </c>
       <c r="K26" t="n">
         <v>18.3127675</v>
@@ -1642,22 +1649,22 @@
         <v>0.2830552777777778</v>
       </c>
       <c r="E27" t="n">
-        <v>31.82523962026445</v>
+        <v>32.77417628935602</v>
       </c>
       <c r="F27" t="n">
         <v>22.36427883777778</v>
       </c>
       <c r="G27" t="n">
-        <v>14.06710707944444</v>
+        <v>14.07749735722222</v>
       </c>
       <c r="H27" t="n">
-        <v>8.297171758333331</v>
+        <v>8.286781480555554</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.1558333333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1277777777777778</v>
+        <v>0.1275</v>
       </c>
       <c r="K27" t="n">
         <v>1.180555833333333</v>
@@ -1687,22 +1694,22 @@
         <v>0.9827777777777778</v>
       </c>
       <c r="E28" t="n">
-        <v>117.7685893622309</v>
+        <v>118.4972564873092</v>
       </c>
       <c r="F28" t="n">
         <v>81.24964430944445</v>
       </c>
       <c r="G28" t="n">
-        <v>44.15298080361111</v>
+        <v>44.62582385916667</v>
       </c>
       <c r="H28" t="n">
-        <v>37.09666350583333</v>
+        <v>36.62382045027778</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4588888888888889</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5302777777777777</v>
+        <v>0.5241666666666667</v>
       </c>
       <c r="K28" t="n">
         <v>2.568611111111111</v>
@@ -1732,22 +1739,22 @@
         <v>1.612779166666667</v>
       </c>
       <c r="E29" t="n">
-        <v>302.816114855184</v>
+        <v>303.352505321752</v>
       </c>
       <c r="F29" t="n">
         <v>138.0112086555555</v>
       </c>
       <c r="G29" t="n">
-        <v>112.8301851386111</v>
+        <v>113.7586629163889</v>
       </c>
       <c r="H29" t="n">
-        <v>25.18102351694445</v>
+        <v>24.25254573916667</v>
       </c>
       <c r="I29" t="n">
-        <v>1.243333333333333</v>
+        <v>1.255</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3697222222222222</v>
+        <v>0.3580555555555556</v>
       </c>
       <c r="K29" t="n">
         <v>17.0527125</v>
@@ -1777,22 +1784,22 @@
         <v>1.535556111111111</v>
       </c>
       <c r="E30" t="n">
-        <v>210.8872346100463</v>
+        <v>210.1767480516897</v>
       </c>
       <c r="F30" t="n">
         <v>127.58414376</v>
       </c>
       <c r="G30" t="n">
-        <v>101.4348087705555</v>
+        <v>101.5884732911111</v>
       </c>
       <c r="H30" t="n">
-        <v>26.14933498944445</v>
+        <v>25.99567046888889</v>
       </c>
       <c r="I30" t="n">
-        <v>1.151666666666667</v>
+        <v>1.153611111111111</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3841666666666667</v>
+        <v>0.3822222222222222</v>
       </c>
       <c r="K30" t="n">
         <v>1.549998333333333</v>
@@ -1822,22 +1829,22 @@
         <v>3.645555833333333</v>
       </c>
       <c r="E31" t="n">
-        <v>435.3075788890479</v>
+        <v>458.2977770119484</v>
       </c>
       <c r="F31" t="n">
         <v>308.7708649383333</v>
       </c>
       <c r="G31" t="n">
-        <v>206.5721109497222</v>
+        <v>210.0075608513889</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1987539886111</v>
+        <v>98.76330408694444</v>
       </c>
       <c r="I31" t="n">
-        <v>2.157777777777778</v>
+        <v>2.201111111111111</v>
       </c>
       <c r="J31" t="n">
-        <v>1.488055555555555</v>
+        <v>1.444722222222222</v>
       </c>
       <c r="K31" t="n">
         <v>20.25977861111111</v>
@@ -1867,22 +1874,22 @@
         <v>0.865</v>
       </c>
       <c r="E32" t="n">
-        <v>164.2079677200734</v>
+        <v>165.3662751622574</v>
       </c>
       <c r="F32" t="n">
         <v>78.26609617111112</v>
       </c>
       <c r="G32" t="n">
-        <v>56.336848585</v>
+        <v>57.19475136277778</v>
       </c>
       <c r="H32" t="n">
-        <v>21.92924758611111</v>
+        <v>21.07134480833333</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5369444444444444</v>
+        <v>0.5477777777777778</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3283333333333333</v>
+        <v>0.3175</v>
       </c>
       <c r="K32" t="n">
         <v>2.085093611111111</v>
@@ -1912,22 +1919,22 @@
         <v>1.302222222222222</v>
       </c>
       <c r="E33" t="n">
-        <v>198.6092207307294</v>
+        <v>205.3897231750265</v>
       </c>
       <c r="F33" t="n">
         <v>117.5740360938889</v>
       </c>
       <c r="G33" t="n">
-        <v>88.69194487416667</v>
+        <v>89.94044449527777</v>
       </c>
       <c r="H33" t="n">
-        <v>28.88209121972222</v>
+        <v>27.63359159861111</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8805555555555555</v>
+        <v>0.8966666666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4219444444444445</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="K33" t="n">
         <v>1.559444444444444</v>
@@ -1957,22 +1964,22 @@
         <v>1.960555555555556</v>
       </c>
       <c r="E34" t="n">
-        <v>226.0512868908716</v>
+        <v>232.3210977573418</v>
       </c>
       <c r="F34" t="n">
         <v>158.358051665</v>
       </c>
       <c r="G34" t="n">
-        <v>129.1787703219444</v>
+        <v>130.3680946913889</v>
       </c>
       <c r="H34" t="n">
-        <v>29.17928134305556</v>
+        <v>27.98995697361111</v>
       </c>
       <c r="I34" t="n">
-        <v>1.528888888888889</v>
+        <v>1.544444444444445</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4319444444444445</v>
+        <v>0.4163888888888889</v>
       </c>
       <c r="K34" t="n">
         <v>14.138725</v>
@@ -2002,22 +2009,22 @@
         <v>0.2769441666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>24.12038299443602</v>
+        <v>24.37468253228592</v>
       </c>
       <c r="F35" t="n">
         <v>22.09509078916667</v>
       </c>
       <c r="G35" t="n">
-        <v>9.442737172222222</v>
+        <v>9.526403838888889</v>
       </c>
       <c r="H35" t="n">
-        <v>12.65235361694444</v>
+        <v>12.56868695027778</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08777777777777777</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1894444444444444</v>
+        <v>0.1883333333333333</v>
       </c>
       <c r="K35" t="n">
         <v>1.125278333333333</v>
@@ -2047,22 +2054,22 @@
         <v>0.3702777777777778</v>
       </c>
       <c r="E36" t="n">
-        <v>6.115357545283296</v>
+        <v>6.183792459298012</v>
       </c>
       <c r="F36" t="n">
         <v>25.68605392861111</v>
       </c>
       <c r="G36" t="n">
-        <v>4.383186379444445</v>
+        <v>4.479735608055555</v>
       </c>
       <c r="H36" t="n">
-        <v>21.30286754916667</v>
+        <v>21.20631832055555</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3205555555555555</v>
+        <v>0.3191666666666667</v>
       </c>
       <c r="K36" t="n">
         <v>0.2313888888888889</v>
@@ -2092,22 +2099,22 @@
         <v>1.1722225</v>
       </c>
       <c r="E37" t="n">
-        <v>238.864812006745</v>
+        <v>244.9438376760857</v>
       </c>
       <c r="F37" t="n">
         <v>119.6595012119444</v>
       </c>
       <c r="G37" t="n">
-        <v>93.82644234472222</v>
+        <v>94.68595868916667</v>
       </c>
       <c r="H37" t="n">
-        <v>25.83305886722222</v>
+        <v>24.97354252277778</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7961111111111111</v>
+        <v>0.8069444444444445</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3763888888888889</v>
+        <v>0.3655555555555556</v>
       </c>
       <c r="K37" t="n">
         <v>1.944167222222222</v>
@@ -2137,22 +2144,22 @@
         <v>0.4225</v>
       </c>
       <c r="E38" t="n">
-        <v>23.63675044744471</v>
+        <v>26.62596832489969</v>
       </c>
       <c r="F38" t="n">
         <v>32.80884563194444</v>
       </c>
       <c r="G38" t="n">
-        <v>19.34882046444444</v>
+        <v>19.55200102</v>
       </c>
       <c r="H38" t="n">
-        <v>13.4600251675</v>
+        <v>13.25684461194444</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2227777777777778</v>
+        <v>0.2252777777777778</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2</v>
+        <v>0.1975</v>
       </c>
       <c r="K38" t="n">
         <v>1.019443333333333</v>
@@ -2182,22 +2189,22 @@
         <v>1.787500277777778</v>
       </c>
       <c r="E39" t="n">
-        <v>114.7866664762899</v>
+        <v>125.6431061133365</v>
       </c>
       <c r="F39" t="n">
         <v>136.5821605008333</v>
       </c>
       <c r="G39" t="n">
-        <v>74.86739645444445</v>
+        <v>76.12668266277777</v>
       </c>
       <c r="H39" t="n">
-        <v>61.71476404638889</v>
+        <v>60.45547783805556</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8975</v>
+        <v>0.9138888888888889</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8902777777777777</v>
+        <v>0.8738888888888889</v>
       </c>
       <c r="K39" t="n">
         <v>15.59347472222222</v>
@@ -2227,22 +2234,22 @@
         <v>1.078055</v>
       </c>
       <c r="E40" t="n">
-        <v>168.6671705193405</v>
+        <v>173.8299597039447</v>
       </c>
       <c r="F40" t="n">
         <v>97.68945671222221</v>
       </c>
       <c r="G40" t="n">
-        <v>78.96289352777778</v>
+        <v>79.80102686138889</v>
       </c>
       <c r="H40" t="n">
-        <v>18.72656318444444</v>
+        <v>17.88842985083333</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8063888888888889</v>
+        <v>0.8172222222222222</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2719444444444444</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="K40" t="n">
         <v>0.8434938888888889</v>
@@ -2253,6 +2260,2076 @@
       <c r="M40" t="inlineStr">
         <is>
           <t>26-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Trip 48</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44256.4857458449</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>44256.54323424769</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.379721666666667</v>
+      </c>
+      <c r="E41" t="n">
+        <v>76.09902037228903</v>
+      </c>
+      <c r="F41" t="n">
+        <v>104.5241432822222</v>
+      </c>
+      <c r="G41" t="n">
+        <v>54.43320203805555</v>
+      </c>
+      <c r="H41" t="n">
+        <v>50.09094124416667</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6502777777777777</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7308333333333333</v>
+      </c>
+      <c r="K41" t="n">
+        <v>24.28376805555556</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Trip 49</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44256.54401914352</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>44256.61068570601</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.5999975</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1178.053270185442</v>
+      </c>
+      <c r="F42" t="n">
+        <v>313.6920839702778</v>
+      </c>
+      <c r="G42" t="n">
+        <v>305.9696451508333</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.722438819444443</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.483333333333333</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1169444444444444</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0188375</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Trip 50</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44257.28390810185</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>44257.40815577546</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.981944166666667</v>
+      </c>
+      <c r="E43" t="n">
+        <v>310.2595394605493</v>
+      </c>
+      <c r="F43" t="n">
+        <v>246.4657763469444</v>
+      </c>
+      <c r="G43" t="n">
+        <v>149.2525828030556</v>
+      </c>
+      <c r="H43" t="n">
+        <v>97.21319354388889</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.583611111111111</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.398611111111111</v>
+      </c>
+      <c r="K43" t="n">
+        <v>16.1573375</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Trip 54</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44259.60332253472</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>44259.68931790509</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.063888888888889</v>
+      </c>
+      <c r="E44" t="n">
+        <v>366.626534437551</v>
+      </c>
+      <c r="F44" t="n">
+        <v>172.5641035469444</v>
+      </c>
+      <c r="G44" t="n">
+        <v>117.3588673597222</v>
+      </c>
+      <c r="H44" t="n">
+        <v>55.20523618722223</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.191666666666667</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K44" t="n">
+        <v>28.68400222222222</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Trip 57</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44260.33733165509</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>44260.42851221064</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.188333333333333</v>
+      </c>
+      <c r="E45" t="n">
+        <v>510.018225315759</v>
+      </c>
+      <c r="F45" t="n">
+        <v>215.3555904933333</v>
+      </c>
+      <c r="G45" t="n">
+        <v>180.3268539766667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>35.02873651666667</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.674166666666667</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5144444444444445</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.55233</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Trip 58</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44260.43638255787</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>44260.4703640625</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8155561111111111</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.75120177585364</v>
+      </c>
+      <c r="F46" t="n">
+        <v>67.6760454286111</v>
+      </c>
+      <c r="G46" t="n">
+        <v>45.7521843038889</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21.92386112472222</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3258333333333333</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1888883333333333</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Trip 59</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44263.30715034722</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>44263.38615497686</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.896111111111111</v>
+      </c>
+      <c r="E47" t="n">
+        <v>183.9365179153207</v>
+      </c>
+      <c r="F47" t="n">
+        <v>143.2764245805556</v>
+      </c>
+      <c r="G47" t="n">
+        <v>105.3403665822222</v>
+      </c>
+      <c r="H47" t="n">
+        <v>37.93605799833333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.255833333333333</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6405555555555555</v>
+      </c>
+      <c r="K47" t="n">
+        <v>20.08287083333333</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Trip 60</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44263.39322684028</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>44263.44880545139</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.333886666666667</v>
+      </c>
+      <c r="E48" t="n">
+        <v>117.0955639567539</v>
+      </c>
+      <c r="F48" t="n">
+        <v>105.2620586502778</v>
+      </c>
+      <c r="G48" t="n">
+        <v>61.07565082333333</v>
+      </c>
+      <c r="H48" t="n">
+        <v>44.18640782694445</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1697247222222222</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Trip 61</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44264.2783896412</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>44264.41907251158</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.376388888888889</v>
+      </c>
+      <c r="E49" t="n">
+        <v>554.8008945075583</v>
+      </c>
+      <c r="F49" t="n">
+        <v>299.5001146219445</v>
+      </c>
+      <c r="G49" t="n">
+        <v>239.1416370419444</v>
+      </c>
+      <c r="H49" t="n">
+        <v>60.35847758</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.550833333333333</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8258333333333333</v>
+      </c>
+      <c r="K49" t="n">
+        <v>19.91002055555555</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Trip 62</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44264.43752158565</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>44264.4503225</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.3072219444444445</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27.1152779963232</v>
+      </c>
+      <c r="F50" t="n">
+        <v>23.25930294638889</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14.27601482944444</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8.983288116944443</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1705555555555555</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1369444444444445</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4427777777777778</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Trip 63</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44264.49152621528</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>44264.50510260417</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3258333333333333</v>
+      </c>
+      <c r="E51" t="n">
+        <v>22.20451701461502</v>
+      </c>
+      <c r="F51" t="n">
+        <v>24.90176912166667</v>
+      </c>
+      <c r="G51" t="n">
+        <v>15.78959935472222</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9.112169766944444</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1386111111111111</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9888891666666667</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Trip 64</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44264.59149157407</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>44264.60488269676</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.3213869444444444</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8.802840039798017</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23.12901840611111</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8.906762428888889</v>
+      </c>
+      <c r="H52" t="n">
+        <v>14.22225597722222</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1088888888888889</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.2127777777777778</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.073335277777778</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Trip 65</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44264.62989427083</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>44264.67501001158</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.082777777777778</v>
+      </c>
+      <c r="E53" t="n">
+        <v>114.9319994673695</v>
+      </c>
+      <c r="F53" t="n">
+        <v>87.1543605175</v>
+      </c>
+      <c r="G53" t="n">
+        <v>61.08788415527777</v>
+      </c>
+      <c r="H53" t="n">
+        <v>26.06647636222222</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7030555555555555</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.6002777777777778</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Trip 68</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44267.58798365741</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>44267.73440726852</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.514166666666667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>480.6201729966959</v>
+      </c>
+      <c r="F54" t="n">
+        <v>297.9725941119444</v>
+      </c>
+      <c r="G54" t="n">
+        <v>237.6775773394444</v>
+      </c>
+      <c r="H54" t="n">
+        <v>60.29501677250001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.643055555555556</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.8713888888888889</v>
+      </c>
+      <c r="K54" t="n">
+        <v>21.9113675</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Trip 69</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44267.78565725694</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>44267.81220818287</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6372222222222222</v>
+      </c>
+      <c r="E55" t="n">
+        <v>34.41612570095774</v>
+      </c>
+      <c r="F55" t="n">
+        <v>48.55276151722222</v>
+      </c>
+      <c r="G55" t="n">
+        <v>27.59178155138889</v>
+      </c>
+      <c r="H55" t="n">
+        <v>20.96097996583333</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3075</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.229999722222222</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Trip 71</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44267.87032251158</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>44267.90514826389</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8358180555555556</v>
+      </c>
+      <c r="E56" t="n">
+        <v>137.7373414449804</v>
+      </c>
+      <c r="F56" t="n">
+        <v>78.9836424375</v>
+      </c>
+      <c r="G56" t="n">
+        <v>46.63305269583334</v>
+      </c>
+      <c r="H56" t="n">
+        <v>32.35058974166666</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4494444444444444</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.394743888888889</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Trip 76</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44269.75762010417</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>44269.80251592593</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.077499722222222</v>
+      </c>
+      <c r="E57" t="n">
+        <v>423.6527791013467</v>
+      </c>
+      <c r="F57" t="n">
+        <v>126.2309697791667</v>
+      </c>
+      <c r="G57" t="n">
+        <v>117.2244704675</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.006499311666664</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1352777777777778</v>
+      </c>
+      <c r="K57" t="n">
+        <v>20.45932416666666</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>14-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Trip 78</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44270.37354601852</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>44270.38609231482</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3011111111111111</v>
+      </c>
+      <c r="E58" t="n">
+        <v>27.03488351745909</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20.11109948944445</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14.77833896722222</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.332760522222223</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2202777777777778</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.08111111111111111</v>
+      </c>
+      <c r="K58" t="n">
+        <v>13.70472222222222</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>15-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Trip 80</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44270.38855770833</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>44270.46266064815</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.778470555555556</v>
+      </c>
+      <c r="E59" t="n">
+        <v>330.2621745655292</v>
+      </c>
+      <c r="F59" t="n">
+        <v>159.1837464280556</v>
+      </c>
+      <c r="G59" t="n">
+        <v>141.0072716952778</v>
+      </c>
+      <c r="H59" t="n">
+        <v>18.17647473277778</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.510277777777778</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2702777777777778</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.05916944444444444</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>15-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Trip 82</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44270.52392222222</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>44270.58718611111</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.518333333333333</v>
+      </c>
+      <c r="E60" t="n">
+        <v>549.8669971693464</v>
+      </c>
+      <c r="F60" t="n">
+        <v>190.211478575</v>
+      </c>
+      <c r="G60" t="n">
+        <v>174.5228906536111</v>
+      </c>
+      <c r="H60" t="n">
+        <v>15.68858792138889</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.288611111111111</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.470277777777778</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>15-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Trip 83</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44270.72936203704</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>44270.79738287037</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.6325</v>
+      </c>
+      <c r="E61" t="n">
+        <v>514.9063915808761</v>
+      </c>
+      <c r="F61" t="n">
+        <v>183.1296085233333</v>
+      </c>
+      <c r="G61" t="n">
+        <v>157.1659336486111</v>
+      </c>
+      <c r="H61" t="n">
+        <v>25.96367487472222</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.412222222222222</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>15-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Trip 84</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44271.3262230787</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>44271.48527399306</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.817221944444444</v>
+      </c>
+      <c r="E62" t="n">
+        <v>173.6435904456943</v>
+      </c>
+      <c r="F62" t="n">
+        <v>291.711583025</v>
+      </c>
+      <c r="G62" t="n">
+        <v>176.0681741988889</v>
+      </c>
+      <c r="H62" t="n">
+        <v>115.6434088261111</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.155277777777778</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.662222222222222</v>
+      </c>
+      <c r="K62" t="n">
+        <v>12.692165</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>16-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Trip 85</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44271.5621953125</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>44271.60451010417</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.015555</v>
+      </c>
+      <c r="E63" t="n">
+        <v>111.0531840290796</v>
+      </c>
+      <c r="F63" t="n">
+        <v>82.64003187500001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>48.88448818888889</v>
+      </c>
+      <c r="H63" t="n">
+        <v>33.75554368611111</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.5169444444444444</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.4988888888888889</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.846111666666667</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>16-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Trip 87</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44271.64054023148</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>44271.64453332176</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.09583416666666666</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22.05559167054405</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.664475429722224</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.942184773611111</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.722290656111111</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.02611111111111111</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8647230555555555</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>16-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Trip 89</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44271.64609940972</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>44271.65367550926</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1818263888888889</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.74302579020018</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13.44531916222222</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.902839182777778</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6.542479979444444</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.08277777777777778</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.09972222222222223</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.03758611111111111</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>16-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Trip 90</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44271.69144171297</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>44271.76708986111</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.815555555555556</v>
+      </c>
+      <c r="E66" t="n">
+        <v>165.2109924081282</v>
+      </c>
+      <c r="F66" t="n">
+        <v>140.9793827797222</v>
+      </c>
+      <c r="G66" t="n">
+        <v>72.98723743722222</v>
+      </c>
+      <c r="H66" t="n">
+        <v>67.99214534250001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.8033333333333333</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.0125</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9063888888888889</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>16-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Trip 93</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44272.29582914352</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>44272.40879209491</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.711110833333333</v>
+      </c>
+      <c r="E67" t="n">
+        <v>699.7623013046704</v>
+      </c>
+      <c r="F67" t="n">
+        <v>267.4802197061111</v>
+      </c>
+      <c r="G67" t="n">
+        <v>245.6312245463889</v>
+      </c>
+      <c r="H67" t="n">
+        <v>21.84899515972222</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.384444444444445</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.3269444444444444</v>
+      </c>
+      <c r="K67" t="n">
+        <v>12.68974277777778</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>17-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Trip 94</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44272.53617634259</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>44272.585435625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.182222777777778</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23.28740018802572</v>
+      </c>
+      <c r="F68" t="n">
+        <v>86.81893662249999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>30.96301728861111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>55.85591933388888</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.7975</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.057221944444445</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>17-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Trip 95</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44272.64593329861</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>44272.65756524305</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2791666666666667</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.505310922484767</v>
+      </c>
+      <c r="F69" t="n">
+        <v>19.9160972075</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.980995103055554</v>
+      </c>
+      <c r="H69" t="n">
+        <v>11.93510210444444</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1822222222222222</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.451944166666667</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>17-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Trip 96</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44273.27597209491</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>44273.38747671296</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.676110833333333</v>
+      </c>
+      <c r="E70" t="n">
+        <v>206.7277261328929</v>
+      </c>
+      <c r="F70" t="n">
+        <v>211.4531019883333</v>
+      </c>
+      <c r="G70" t="n">
+        <v>144.0896185375</v>
+      </c>
+      <c r="H70" t="n">
+        <v>67.36348345083333</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.705277777777778</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.9711111111111111</v>
+      </c>
+      <c r="K70" t="n">
+        <v>14.84176444444445</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>18-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Trip 97</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44273.4003702662</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>44273.45024291667</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.196943611111111</v>
+      </c>
+      <c r="E71" t="n">
+        <v>269.1948967605244</v>
+      </c>
+      <c r="F71" t="n">
+        <v>124.5119613808333</v>
+      </c>
+      <c r="G71" t="n">
+        <v>104.4056410355556</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20.10632034527778</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9013888888888889</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.2958333333333333</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.3094452777777778</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>18-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Trip 100</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44274.38057299769</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>44274.43053827546</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.199166666666667</v>
+      </c>
+      <c r="E72" t="n">
+        <v>135.8564109941358</v>
+      </c>
+      <c r="F72" t="n">
+        <v>98.35623297166667</v>
+      </c>
+      <c r="G72" t="n">
+        <v>72.1125378675</v>
+      </c>
+      <c r="H72" t="n">
+        <v>26.24369510416667</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.8169444444444445</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3825</v>
+      </c>
+      <c r="K72" t="n">
+        <v>22.32792194444444</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>19-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Trip 103</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44277.51779240741</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>44277.59530393519</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.860276666666667</v>
+      </c>
+      <c r="E73" t="n">
+        <v>178.7415834800737</v>
+      </c>
+      <c r="F73" t="n">
+        <v>149.3635591747222</v>
+      </c>
+      <c r="G73" t="n">
+        <v>129.8764132983334</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19.48714587638889</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.564166666666667</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.2963888888888889</v>
+      </c>
+      <c r="K73" t="n">
+        <v>26.09409916666667</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>22-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Trip 104</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44277.64076689815</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>44277.81647292824</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.216944722222222</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2158.612982358187</v>
+      </c>
+      <c r="F74" t="n">
+        <v>645.4652718622223</v>
+      </c>
+      <c r="G74" t="n">
+        <v>582.0493817608333</v>
+      </c>
+      <c r="H74" t="n">
+        <v>63.41589010138889</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.363333333333333</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.8538888888888889</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.091111111111111</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>22-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Trip 107</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44280.30556649306</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>44280.36302020834</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.378889166666667</v>
+      </c>
+      <c r="E75" t="n">
+        <v>127.4352315715817</v>
+      </c>
+      <c r="F75" t="n">
+        <v>110.4853750730556</v>
+      </c>
+      <c r="G75" t="n">
+        <v>68.50102302305555</v>
+      </c>
+      <c r="H75" t="n">
+        <v>41.98435205</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7613888888888889</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.6177777777777778</v>
+      </c>
+      <c r="K75" t="n">
+        <v>11.73824555555556</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>25-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Trip 108</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44280.52766153935</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>44280.53636525463</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.2088891666666667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>21.26932701169402</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15.68960343416667</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6.326133428611111</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9.363470005555556</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.06444444444444444</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1447222222222222</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3.951391944444445</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>25-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Trip 109</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44280.57511526621</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>44280.60222174769</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.6505555555555556</v>
+      </c>
+      <c r="E77" t="n">
+        <v>74.290752967665</v>
+      </c>
+      <c r="F77" t="n">
+        <v>53.49620803666667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>34.62325783833333</v>
+      </c>
+      <c r="H77" t="n">
+        <v>18.87295019833333</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.3711111111111111</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2797222222222222</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9300002777777778</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>25-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Trip 110</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44280.61225644676</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>44280.67373792824</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.475555555555556</v>
+      </c>
+      <c r="E78" t="n">
+        <v>251.3192127177563</v>
+      </c>
+      <c r="F78" t="n">
+        <v>130.1694832702778</v>
+      </c>
+      <c r="G78" t="n">
+        <v>91.57739069638887</v>
+      </c>
+      <c r="H78" t="n">
+        <v>38.59209257388889</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9411111111111111</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2408327777777778</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>25-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Trip 111</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44280.68406204861</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>44280.75672403935</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.743887777777778</v>
+      </c>
+      <c r="E79" t="n">
+        <v>633.6825489067182</v>
+      </c>
+      <c r="F79" t="n">
+        <v>218.0981494622222</v>
+      </c>
+      <c r="G79" t="n">
+        <v>202.7993564919444</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15.29879297027778</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.5175</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.2266666666666667</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.2477788888888889</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>25-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Trip 112</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44281.30952452547</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>44281.39935078704</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.155830277777778</v>
+      </c>
+      <c r="E80" t="n">
+        <v>340.7138647977956</v>
+      </c>
+      <c r="F80" t="n">
+        <v>196.1016952938889</v>
+      </c>
+      <c r="G80" t="n">
+        <v>148.0448399238889</v>
+      </c>
+      <c r="H80" t="n">
+        <v>48.05685537</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.443888888888889</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.7122222222222222</v>
+      </c>
+      <c r="K80" t="n">
+        <v>13.26721166666667</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>26-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Trip 113</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44284.32762034722</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>44284.39243518518</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.555556111111111</v>
+      </c>
+      <c r="E81" t="n">
+        <v>195.325537086748</v>
+      </c>
+      <c r="F81" t="n">
+        <v>125.8721089138889</v>
+      </c>
+      <c r="G81" t="n">
+        <v>97.52156901111111</v>
+      </c>
+      <c r="H81" t="n">
+        <v>28.35053990277778</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.136111111111111</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4197222222222222</v>
+      </c>
+      <c r="K81" t="n">
+        <v>22.27846944444444</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>29-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Trip 114</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44284.42117358797</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>44284.50787497685</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.080833333333334</v>
+      </c>
+      <c r="E82" t="n">
+        <v>243.4689815175862</v>
+      </c>
+      <c r="F82" t="n">
+        <v>171.4148150586111</v>
+      </c>
+      <c r="G82" t="n">
+        <v>115.01733087</v>
+      </c>
+      <c r="H82" t="n">
+        <v>56.39748418861112</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.236666666666667</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.6897216666666667</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>29-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Trip 115</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44286.24930902778</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>44286.29201737268</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.025000277777778</v>
+      </c>
+      <c r="E83" t="n">
+        <v>160.1568757351062</v>
+      </c>
+      <c r="F83" t="n">
+        <v>80.22656676166667</v>
+      </c>
+      <c r="G83" t="n">
+        <v>55.21859035777779</v>
+      </c>
+      <c r="H83" t="n">
+        <v>25.00797640388889</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.5238888888888888</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="K83" t="n">
+        <v>17.79441722222222</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>31-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Trip 116</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44286.31511923611</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>44286.34819792824</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7938886111111111</v>
+      </c>
+      <c r="E84" t="n">
+        <v>64.65036018580838</v>
+      </c>
+      <c r="F84" t="n">
+        <v>62.594748165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>33.99112918444445</v>
+      </c>
+      <c r="H84" t="n">
+        <v>28.60361898055556</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.3636111111111111</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.5544447222222222</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>31-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Trip 117</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44286.35539700231</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>44286.39355672454</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="E85" t="n">
+        <v>63.94263657813427</v>
+      </c>
+      <c r="F85" t="n">
+        <v>74.33162407472223</v>
+      </c>
+      <c r="G85" t="n">
+        <v>52.87726727138889</v>
+      </c>
+      <c r="H85" t="n">
+        <v>21.45435680333333</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.6130555555555556</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3030555555555556</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.1727777777777778</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>31-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Trip 118</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44286.43587153935</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>44286.46235303241</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6355558333333333</v>
+      </c>
+      <c r="E86" t="n">
+        <v>141.8431415755733</v>
+      </c>
+      <c r="F86" t="n">
+        <v>67.53728579805556</v>
+      </c>
+      <c r="G86" t="n">
+        <v>47.56800073777778</v>
+      </c>
+      <c r="H86" t="n">
+        <v>19.96928506027778</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.3405555555555556</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.2952777777777778</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.015555555555556</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>31-03</t>
         </is>
       </c>
     </row>
@@ -2267,7 +4344,631 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>44256</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>44287</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>44317</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>44348</v>
+      </c>
+      <c r="G1" s="3" t="n">
+        <v>44378</v>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>duration_engine_off</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>612.9075086111111</v>
+      </c>
+      <c r="C2" t="n">
+        <v>676.1636191666666</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1289.071127777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.09249138888889</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67.83638083333334</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>126.9288722222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>duration_idle</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21.485</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.40000000000001</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>43.88500000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>duration_at_power</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>37.61833333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45.45999999999999</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>83.07833333333332</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fuel_idle</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1474.730393408333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1519.68831938139</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2994.418712789722</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>fuel_at_power</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3704.482829632777</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4858.272209920831</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>8562.755039553609</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>total_fuel</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5179.213223041111</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6377.960529302224</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>11557.17375234333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>total_co2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13859.54407411292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17067.38480384727</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>30926.92887796018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>5-100</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>828.9666666666667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>988.1833333333333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1817.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>100-200</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>495.4666666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>495.05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>990.5166666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>200-300</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>247.7666666666667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>309.2333333333333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>300-400</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>261.4666666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>299.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>560.8166666666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>400-500</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>132.7166666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152.3166666666667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>285.0333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>500-600</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>112.3666666666667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>237.2666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>600-700</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100.8666666666667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>153.0166666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>700-800</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>79.96666666666667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>133.7666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>800-900</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16.03333333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>84.68333333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>900-1000</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.58333333333333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.68333333333333</v>
+      </c>
+      <c r="D11" t="n">
+        <v>58.26666666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1000-1100</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10.38333333333333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.58333333333333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.96666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>1100-1200</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13.61666666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.18333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1200-1300</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.61666666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.78333333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>1300-1400</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.966666666666667</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.316666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1400-1500</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.383333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1500-1600</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.466666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1600-1700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.433333333333333</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.36666666666667</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1700-1800</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.616666666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.383333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1800-1900</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1900-2000</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2000-2100</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2100-2200</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2200-2300</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2300-2400</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,15 +4976,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13" customWidth="1" style="3" min="4" max="4"/>
-    <col width="13" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13" customWidth="1" style="3" min="6" max="6"/>
-    <col width="13" customWidth="1" style="3" min="8" max="8"/>
-    <col width="13" customWidth="1" style="3" min="9" max="9"/>
-    <col width="13" customWidth="1" style="3" min="10" max="10"/>
+    <col width="13" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13" customWidth="1" style="4" min="6" max="6"/>
+    <col width="13" customWidth="1" style="4" min="8" max="8"/>
+    <col width="13" customWidth="1" style="4" min="9" max="9"/>
+    <col width="13" customWidth="1" style="4" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2334,10 +5035,10 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>235.3797588068789</v>
+        <v>247.8602271923731</v>
       </c>
       <c r="F2" t="n">
-        <v>112.1026004588889</v>
+        <v>113.0985614438889</v>
       </c>
       <c r="G2" t="n">
         <v>169.2873122388889</v>
@@ -2346,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>235.3797588068789</v>
+        <v>247.8602271923731</v>
       </c>
     </row>
     <row r="3">
@@ -2367,10 +5068,10 @@
         <v>15.51117833333333</v>
       </c>
       <c r="E3" t="n">
-        <v>74.00035070022064</v>
+        <v>104.1517227084266</v>
       </c>
       <c r="F3" t="n">
-        <v>75.25455110194446</v>
+        <v>75.6790691575</v>
       </c>
       <c r="G3" t="n">
         <v>110.3666201713889</v>
@@ -2379,7 +5080,7 @@
         <v>19.96308</v>
       </c>
       <c r="I3.0" t="n">
-        <v>598.2789926021113</v>
+        <v>647.1214438182371</v>
       </c>
     </row>
     <row r="4">
@@ -2395,10 +5096,10 @@
         <v>0.8975005555555555</v>
       </c>
       <c r="E4" t="n">
-        <v>27.66098120861863</v>
+        <v>30.63564075847183</v>
       </c>
       <c r="F4" t="n">
-        <v>15.42944756138889</v>
+        <v>15.49648645027778</v>
       </c>
       <c r="G4" t="n">
         <v>21.87316791777778</v>
@@ -2417,10 +5118,10 @@
         <v>2.707178888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>206.7110992545219</v>
+        <v>213.8235427564449</v>
       </c>
       <c r="F5" t="n">
-        <v>85.20829152277777</v>
+        <v>86.06341702833333</v>
       </c>
       <c r="G5" t="n">
         <v>149.925265625</v>
@@ -2439,10 +5140,10 @@
         <v>0.8472222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>289.9065614387501</v>
+        <v>298.5105375948937</v>
       </c>
       <c r="F6" t="n">
-        <v>103.89863229</v>
+        <v>104.02664479</v>
       </c>
       <c r="G6" t="n">
         <v>123.9997099955555</v>
@@ -2466,10 +5167,10 @@
         <v>14.37368027777778</v>
       </c>
       <c r="E7" t="n">
-        <v>492.4581661609855</v>
+        <v>536.6401508648818</v>
       </c>
       <c r="F7" t="n">
-        <v>281.4559281569444</v>
+        <v>289.1497289977777</v>
       </c>
       <c r="G7" t="n">
         <v>428.2980651725</v>
@@ -2478,7 +5179,7 @@
         <v>15.29562527777778</v>
       </c>
       <c r="I7.0" t="n">
-        <v>511.5087740618281</v>
+        <v>557.8230983889197</v>
       </c>
     </row>
     <row r="8">
@@ -2494,10 +5195,10 @@
         <v>0.921945</v>
       </c>
       <c r="E8" t="n">
-        <v>19.05060790084272</v>
+        <v>21.18294752403787</v>
       </c>
       <c r="F8" t="n">
-        <v>17.54121706916667</v>
+        <v>17.72619068027778</v>
       </c>
       <c r="G8" t="n">
         <v>39.17248538138889</v>
@@ -2521,10 +5222,10 @@
         <v>20.03330722222222</v>
       </c>
       <c r="E9" t="n">
-        <v>42.75501875538534</v>
+        <v>50.41875575559405</v>
       </c>
       <c r="F9" t="n">
-        <v>62.71543156277777</v>
+        <v>63.66764759638889</v>
       </c>
       <c r="G9" t="n">
         <v>132.9426997233333</v>
@@ -2533,7 +5234,7 @@
         <v>23.83664055555556</v>
       </c>
       <c r="I9.0" t="n">
-        <v>500.168620007151</v>
+        <v>520.6853563352566</v>
       </c>
     </row>
     <row r="10">
@@ -2549,10 +5250,10 @@
         <v>2.585555277777778</v>
       </c>
       <c r="E10" t="n">
-        <v>449.7490645794013</v>
+        <v>461.2733000348517</v>
       </c>
       <c r="F10" t="n">
-        <v>193.5490483183333</v>
+        <v>194.9443788738889</v>
       </c>
       <c r="G10" t="n">
         <v>250.9357109444445</v>
@@ -2571,10 +5272,10 @@
         <v>1.217778055555556</v>
       </c>
       <c r="E11" t="n">
-        <v>7.664536672364425</v>
+        <v>8.993300544810868</v>
       </c>
       <c r="F11" t="n">
-        <v>8.022651653333334</v>
+        <v>8.066372486666666</v>
       </c>
       <c r="G11" t="n">
         <v>18.55288895777777</v>
@@ -2598,10 +5299,10 @@
         <v>13.92822055555555</v>
       </c>
       <c r="E12" t="n">
-        <v>448.4274068557453</v>
+        <v>460.2606049762471</v>
       </c>
       <c r="F12" t="n">
-        <v>148.9716355402778</v>
+        <v>149.7357675266667</v>
       </c>
       <c r="G12" t="n">
         <v>169.3884568372222</v>
@@ -2610,7 +5311,7 @@
         <v>13.92822055555555</v>
       </c>
       <c r="I12.0" t="n">
-        <v>448.4274068557453</v>
+        <v>460.2606049762471</v>
       </c>
     </row>
     <row r="13">
@@ -2631,10 +5332,10 @@
         <v>22.24077194444444</v>
       </c>
       <c r="E13" t="n">
-        <v>208.3632598934118</v>
+        <v>210.290868330168</v>
       </c>
       <c r="F13" t="n">
-        <v>77.93379907777778</v>
+        <v>81.40084579555557</v>
       </c>
       <c r="G13" t="n">
         <v>124.5344426672222</v>
@@ -2643,7 +5344,7 @@
         <v>22.24077194444444</v>
       </c>
       <c r="I13.0" t="n">
-        <v>208.3632598934118</v>
+        <v>210.290868330168</v>
       </c>
     </row>
     <row r="14">
@@ -2664,10 +5365,10 @@
         <v>21.35485166666667</v>
       </c>
       <c r="E14" t="n">
-        <v>472.0041050347856</v>
+        <v>476.7858819694233</v>
       </c>
       <c r="F14" t="n">
-        <v>158.6260938483333</v>
+        <v>159.3287852194445</v>
       </c>
       <c r="G14" t="n">
         <v>193.5261132388889</v>
@@ -2676,7 +5377,7 @@
         <v>21.35485166666667</v>
       </c>
       <c r="I14.0" t="n">
-        <v>472.0041050347856</v>
+        <v>476.7858819694233</v>
       </c>
     </row>
     <row r="15">
@@ -2697,10 +5398,10 @@
         <v>29.43345861111111</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5463991936819</v>
+        <v>145.955422498293</v>
       </c>
       <c r="F15" t="n">
-        <v>69.39842341555556</v>
+        <v>69.48837025944445</v>
       </c>
       <c r="G15" t="n">
         <v>93.23065847333334</v>
@@ -2709,7 +5410,7 @@
         <v>29.43345861111111</v>
       </c>
       <c r="I15.0" t="n">
-        <v>145.5463991936819</v>
+        <v>145.955422498293</v>
       </c>
     </row>
     <row r="16">
@@ -2730,10 +5431,10 @@
         <v>16.64116277777778</v>
       </c>
       <c r="E16" t="n">
-        <v>270.7519404857492</v>
+        <v>284.6421362352484</v>
       </c>
       <c r="F16" t="n">
-        <v>140.7554474722222</v>
+        <v>141.7436656819444</v>
       </c>
       <c r="G16" t="n">
         <v>193.8882349988889</v>
@@ -2742,7 +5443,7 @@
         <v>23.54935666666667</v>
       </c>
       <c r="I16.0" t="n">
-        <v>1005.847775626425</v>
+        <v>1030.731191917568</v>
       </c>
     </row>
     <row r="17">
@@ -2758,10 +5459,10 @@
         <v>2.475138333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>81.77545222439068</v>
+        <v>84.50726865542947</v>
       </c>
       <c r="F17" t="n">
-        <v>45.36631175916666</v>
+        <v>45.77237564805556</v>
       </c>
       <c r="G17" t="n">
         <v>64.82083357222223</v>
@@ -2780,10 +5481,10 @@
         <v>4.433055555555556</v>
       </c>
       <c r="E18" t="n">
-        <v>653.3203829162856</v>
+        <v>661.5817870268903</v>
       </c>
       <c r="F18" t="n">
-        <v>212.1407761216666</v>
+        <v>212.3054038994445</v>
       </c>
       <c r="G18" t="n">
         <v>240.8085077147222</v>
@@ -2807,10 +5508,10 @@
         <v>14.47349555555556</v>
       </c>
       <c r="E19" t="n">
-        <v>41.85755292711956</v>
+        <v>46.56100635834164</v>
       </c>
       <c r="F19" t="n">
-        <v>26.10458127472222</v>
+        <v>26.12283683027778</v>
       </c>
       <c r="G19" t="n">
         <v>70.25490951666666</v>
@@ -2819,7 +5520,7 @@
         <v>14.47349555555556</v>
       </c>
       <c r="I19.0" t="n">
-        <v>41.85755292711956</v>
+        <v>46.56100635834164</v>
       </c>
     </row>
     <row r="20">
@@ -2840,10 +5541,10 @@
         <v>23.85865527777778</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8345346310019</v>
+        <v>462.9194864459968</v>
       </c>
       <c r="F20" t="n">
-        <v>144.9404312169444</v>
+        <v>146.1094116458333</v>
       </c>
       <c r="G20" t="n">
         <v>238.2769932538889</v>
@@ -2852,7 +5553,7 @@
         <v>23.85865527777778</v>
       </c>
       <c r="I20.0" t="n">
-        <v>457.8345346310019</v>
+        <v>462.9194864459968</v>
       </c>
     </row>
     <row r="21">
@@ -2873,10 +5574,10 @@
         <v>21.22671083333333</v>
       </c>
       <c r="E21" t="n">
-        <v>45.99493817642374</v>
+        <v>53.82070408093556</v>
       </c>
       <c r="F21" t="n">
-        <v>41.19798962277778</v>
+        <v>41.86257977444444</v>
       </c>
       <c r="G21" t="n">
         <v>61.92750327527778</v>
@@ -2885,7 +5586,7 @@
         <v>28.16782055555555</v>
       </c>
       <c r="I21.0" t="n">
-        <v>894.9659266487342</v>
+        <v>924.1326108361905</v>
       </c>
     </row>
     <row r="22">
@@ -2901,10 +5602,10 @@
         <v>0.8549991666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>57.38468038612484</v>
+        <v>59.52424379708371</v>
       </c>
       <c r="F22" t="n">
-        <v>33.97527270916667</v>
+        <v>34.27953634666667</v>
       </c>
       <c r="G22" t="n">
         <v>60.03609785083334</v>
@@ -2923,10 +5624,10 @@
         <v>6.086110555555556</v>
       </c>
       <c r="E23" t="n">
-        <v>791.5863080861857</v>
+        <v>810.7876629581712</v>
       </c>
       <c r="F23" t="n">
-        <v>251.5430026591667</v>
+        <v>251.7171731841667</v>
       </c>
       <c r="G23" t="n">
         <v>271.9394265372222</v>
@@ -2950,7 +5651,7 @@
         <v>10.03407805555556</v>
       </c>
       <c r="E24" t="n">
-        <v>44.00107686675825</v>
+        <v>47.9459248239507</v>
       </c>
       <c r="F24" t="n">
         <v>20.05463035833333</v>
@@ -2962,7 +5663,7 @@
         <v>10.78825</v>
       </c>
       <c r="I24.0" t="n">
-        <v>234.515397511714</v>
+        <v>249.3699009896682</v>
       </c>
     </row>
     <row r="25">
@@ -2978,10 +5679,10 @@
         <v>0.7541719444444445</v>
       </c>
       <c r="E25" t="n">
-        <v>190.5143206449558</v>
+        <v>201.4239761657175</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1521689572222</v>
+        <v>122.1240760433333</v>
       </c>
       <c r="G25" t="n">
         <v>160.0519624394444</v>
@@ -3005,10 +5706,10 @@
         <v>18.3127675</v>
       </c>
       <c r="E26" t="n">
-        <v>553.7045354961223</v>
+        <v>562.3704367468663</v>
       </c>
       <c r="F26" t="n">
-        <v>187.0965766530556</v>
+        <v>188.7857564091667</v>
       </c>
       <c r="G26" t="n">
         <v>269.733323215</v>
@@ -3017,7 +5718,7 @@
         <v>22.06193444444444</v>
       </c>
       <c r="I26.0" t="n">
-        <v>703.2983644786177</v>
+        <v>713.6418695235315</v>
       </c>
     </row>
     <row r="27">
@@ -3033,10 +5734,10 @@
         <v>1.180555833333333</v>
       </c>
       <c r="E27" t="n">
-        <v>31.82523962026445</v>
+        <v>32.77417628935602</v>
       </c>
       <c r="F27" t="n">
-        <v>14.06710707944444</v>
+        <v>14.07749735722222</v>
       </c>
       <c r="G27" t="n">
         <v>22.36427883777778</v>
@@ -3055,10 +5756,10 @@
         <v>2.568611111111111</v>
       </c>
       <c r="E28" t="n">
-        <v>117.7685893622309</v>
+        <v>118.4972564873092</v>
       </c>
       <c r="F28" t="n">
-        <v>44.15298080361111</v>
+        <v>44.62582385916667</v>
       </c>
       <c r="G28" t="n">
         <v>81.24964430944445</v>
@@ -3082,10 +5783,10 @@
         <v>17.0527125</v>
       </c>
       <c r="E29" t="n">
-        <v>302.816114855184</v>
+        <v>303.352505321752</v>
       </c>
       <c r="F29" t="n">
-        <v>112.8301851386111</v>
+        <v>113.7586629163889</v>
       </c>
       <c r="G29" t="n">
         <v>138.0112086555555</v>
@@ -3094,7 +5795,7 @@
         <v>18.60271083333333</v>
       </c>
       <c r="I29.0" t="n">
-        <v>513.7033494652303</v>
+        <v>513.5292533734416</v>
       </c>
     </row>
     <row r="30">
@@ -3110,10 +5811,10 @@
         <v>1.549998333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>210.8872346100463</v>
+        <v>210.1767480516897</v>
       </c>
       <c r="F30" t="n">
-        <v>101.4348087705555</v>
+        <v>101.5884732911111</v>
       </c>
       <c r="G30" t="n">
         <v>127.58414376</v>
@@ -3137,10 +5838,10 @@
         <v>20.25977861111111</v>
       </c>
       <c r="E31" t="n">
-        <v>435.3075788890479</v>
+        <v>458.2977770119484</v>
       </c>
       <c r="F31" t="n">
-        <v>206.5721109497222</v>
+        <v>210.0075608513889</v>
       </c>
       <c r="G31" t="n">
         <v>308.7708649383333</v>
@@ -3149,7 +5850,7 @@
         <v>23.90431666666667</v>
       </c>
       <c r="I31.0" t="n">
-        <v>798.1247673398506</v>
+        <v>829.0537753492324</v>
       </c>
     </row>
     <row r="32">
@@ -3165,10 +5866,10 @@
         <v>2.085093611111111</v>
       </c>
       <c r="E32" t="n">
-        <v>164.2079677200734</v>
+        <v>165.3662751622574</v>
       </c>
       <c r="F32" t="n">
-        <v>56.336848585</v>
+        <v>57.19475136277778</v>
       </c>
       <c r="G32" t="n">
         <v>78.26609617111112</v>
@@ -3187,10 +5888,10 @@
         <v>1.559444444444444</v>
       </c>
       <c r="E33" t="n">
-        <v>198.6092207307294</v>
+        <v>205.3897231750265</v>
       </c>
       <c r="F33" t="n">
-        <v>88.69194487416667</v>
+        <v>89.94044449527777</v>
       </c>
       <c r="G33" t="n">
         <v>117.5740360938889</v>
@@ -3214,10 +5915,10 @@
         <v>14.138725</v>
       </c>
       <c r="E34" t="n">
-        <v>226.0512868908716</v>
+        <v>232.3210977573418</v>
       </c>
       <c r="F34" t="n">
-        <v>129.1787703219444</v>
+        <v>130.3680946913889</v>
       </c>
       <c r="G34" t="n">
         <v>158.358051665</v>
@@ -3226,7 +5927,7 @@
         <v>18.45900277777778</v>
       </c>
       <c r="I34.0" t="n">
-        <v>518.7885898847807</v>
+        <v>534.449378749911</v>
       </c>
     </row>
     <row r="35">
@@ -3242,10 +5943,10 @@
         <v>1.125278333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>24.12038299443602</v>
+        <v>24.37468253228592</v>
       </c>
       <c r="F35" t="n">
-        <v>9.442737172222222</v>
+        <v>9.526403838888889</v>
       </c>
       <c r="G35" t="n">
         <v>22.09509078916667</v>
@@ -3264,10 +5965,10 @@
         <v>0.2313888888888889</v>
       </c>
       <c r="E36" t="n">
-        <v>6.115357545283296</v>
+        <v>6.183792459298012</v>
       </c>
       <c r="F36" t="n">
-        <v>4.383186379444445</v>
+        <v>4.479735608055555</v>
       </c>
       <c r="G36" t="n">
         <v>25.68605392861111</v>
@@ -3286,10 +5987,10 @@
         <v>1.944167222222222</v>
       </c>
       <c r="E37" t="n">
-        <v>238.864812006745</v>
+        <v>244.9438376760857</v>
       </c>
       <c r="F37" t="n">
-        <v>93.82644234472222</v>
+        <v>94.68595868916667</v>
       </c>
       <c r="G37" t="n">
         <v>119.6595012119444</v>
@@ -3308,10 +6009,10 @@
         <v>1.019443333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>23.63675044744471</v>
+        <v>26.62596832489969</v>
       </c>
       <c r="F38" t="n">
-        <v>19.34882046444444</v>
+        <v>19.55200102</v>
       </c>
       <c r="G38" t="n">
         <v>32.80884563194444</v>
@@ -3335,10 +6036,10 @@
         <v>15.59347472222222</v>
       </c>
       <c r="E39" t="n">
-        <v>114.7866664762899</v>
+        <v>125.6431061133365</v>
       </c>
       <c r="F39" t="n">
-        <v>74.86739645444445</v>
+        <v>76.12668266277777</v>
       </c>
       <c r="G39" t="n">
         <v>136.5821605008333</v>
@@ -3347,7 +6048,7 @@
         <v>16.43696861111111</v>
       </c>
       <c r="I39.0" t="n">
-        <v>283.4538369956304</v>
+        <v>299.4730658172812</v>
       </c>
     </row>
     <row r="40">
@@ -3363,17 +6064,1227 @@
         <v>0.8434938888888889</v>
       </c>
       <c r="E40" t="n">
-        <v>168.6671705193405</v>
+        <v>173.8299597039447</v>
       </c>
       <c r="F40" t="n">
-        <v>78.96289352777778</v>
+        <v>79.80102686138889</v>
       </c>
       <c r="G40" t="n">
         <v>97.68945671222221</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Trip 48</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01-03</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.379721666666667</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24.28376805555556</v>
+      </c>
+      <c r="E41" t="n">
+        <v>76.09902037228903</v>
+      </c>
+      <c r="F41" t="n">
+        <v>54.43320203805555</v>
+      </c>
+      <c r="G41" t="n">
+        <v>104.5241432822222</v>
+      </c>
+      <c r="H41.0" t="n">
+        <v>24.30260555555556</v>
+      </c>
+      <c r="I41.0" t="n">
+        <v>1254.152290557731</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Trip 49</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.5999975</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0188375</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1178.053270185442</v>
+      </c>
+      <c r="F42" t="n">
+        <v>305.9696451508333</v>
+      </c>
+      <c r="G42" t="n">
+        <v>313.6920839702778</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Trip 50</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>02-03</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2.981944166666667</v>
+      </c>
+      <c r="D43" t="n">
+        <v>16.1573375</v>
+      </c>
+      <c r="E43" t="n">
+        <v>310.2595394605493</v>
+      </c>
+      <c r="F43" t="n">
+        <v>149.2525828030556</v>
+      </c>
+      <c r="G43" t="n">
+        <v>246.4657763469444</v>
+      </c>
+      <c r="H43.0" t="n">
+        <v>16.1573375</v>
+      </c>
+      <c r="I43.0" t="n">
+        <v>310.2595394605493</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Trip 54</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04-03</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2.063888888888889</v>
+      </c>
+      <c r="D44" t="n">
+        <v>28.68400222222222</v>
+      </c>
+      <c r="E44" t="n">
+        <v>366.626534437551</v>
+      </c>
+      <c r="F44" t="n">
+        <v>117.3588673597222</v>
+      </c>
+      <c r="G44" t="n">
+        <v>172.5641035469444</v>
+      </c>
+      <c r="H44.0" t="n">
+        <v>28.68400222222222</v>
+      </c>
+      <c r="I44.0" t="n">
+        <v>366.626534437551</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Trip 57</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>05-03</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2.188333333333333</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.55233</v>
+      </c>
+      <c r="E45" t="n">
+        <v>510.018225315759</v>
+      </c>
+      <c r="F45" t="n">
+        <v>180.3268539766667</v>
+      </c>
+      <c r="G45" t="n">
+        <v>215.3555904933333</v>
+      </c>
+      <c r="H45.0" t="n">
+        <v>15.74121833333333</v>
+      </c>
+      <c r="I45.0" t="n">
+        <v>605.7694270916127</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Trip 58</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8155561111111111</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1888883333333333</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.75120177585364</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45.7521843038889</v>
+      </c>
+      <c r="G46" t="n">
+        <v>67.6760454286111</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Trip 59</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.896111111111111</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20.08287083333333</v>
+      </c>
+      <c r="E47" t="n">
+        <v>183.9365179153207</v>
+      </c>
+      <c r="F47" t="n">
+        <v>105.3403665822222</v>
+      </c>
+      <c r="G47" t="n">
+        <v>143.2764245805556</v>
+      </c>
+      <c r="H47.0" t="n">
+        <v>20.25259555555556</v>
+      </c>
+      <c r="I47.0" t="n">
+        <v>301.0320818720746</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Trip 60</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.333886666666667</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1697247222222222</v>
+      </c>
+      <c r="E48" t="n">
+        <v>117.0955639567539</v>
+      </c>
+      <c r="F48" t="n">
+        <v>61.07565082333333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>105.2620586502778</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Trip 61</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3.376388888888889</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19.91002055555555</v>
+      </c>
+      <c r="E49" t="n">
+        <v>554.8008945075583</v>
+      </c>
+      <c r="F49" t="n">
+        <v>239.1416370419444</v>
+      </c>
+      <c r="G49" t="n">
+        <v>299.5001146219445</v>
+      </c>
+      <c r="H49.0" t="n">
+        <v>24.01530055555556</v>
+      </c>
+      <c r="I49.0" t="n">
+        <v>727.8555290256642</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Trip 62</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3072219444444445</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4427777777777778</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27.1152779963232</v>
+      </c>
+      <c r="F50" t="n">
+        <v>14.27601482944444</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23.25930294638889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Trip 63</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.3258333333333333</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9888891666666667</v>
+      </c>
+      <c r="E51" t="n">
+        <v>22.20451701461502</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15.78959935472222</v>
+      </c>
+      <c r="G51" t="n">
+        <v>24.90176912166667</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Trip 64</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3213869444444444</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.073335277777778</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8.802840039798017</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.906762428888889</v>
+      </c>
+      <c r="G52" t="n">
+        <v>23.12901840611111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Trip 65</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1.082777777777778</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6002777777777778</v>
+      </c>
+      <c r="E53" t="n">
+        <v>114.9319994673695</v>
+      </c>
+      <c r="F53" t="n">
+        <v>61.08788415527777</v>
+      </c>
+      <c r="G53" t="n">
+        <v>87.1543605175</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Trip 68</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.514166666666667</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.9113675</v>
+      </c>
+      <c r="E54" t="n">
+        <v>480.6201729966959</v>
+      </c>
+      <c r="F54" t="n">
+        <v>237.6775773394444</v>
+      </c>
+      <c r="G54" t="n">
+        <v>297.9725941119444</v>
+      </c>
+      <c r="H54.0" t="n">
+        <v>24.53611111111111</v>
+      </c>
+      <c r="I54.0" t="n">
+        <v>652.773640142634</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Trip 69</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6372222222222222</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.229999722222222</v>
+      </c>
+      <c r="E55" t="n">
+        <v>34.41612570095774</v>
+      </c>
+      <c r="F55" t="n">
+        <v>27.59178155138889</v>
+      </c>
+      <c r="G55" t="n">
+        <v>48.55276151722222</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Trip 71</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8358180555555556</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.394743888888889</v>
+      </c>
+      <c r="E56" t="n">
+        <v>137.7373414449804</v>
+      </c>
+      <c r="F56" t="n">
+        <v>46.63305269583334</v>
+      </c>
+      <c r="G56" t="n">
+        <v>78.9836424375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Trip 76</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>14-03</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1.077499722222222</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20.45932416666666</v>
+      </c>
+      <c r="E57" t="n">
+        <v>423.6527791013467</v>
+      </c>
+      <c r="F57" t="n">
+        <v>117.2244704675</v>
+      </c>
+      <c r="G57" t="n">
+        <v>126.2309697791667</v>
+      </c>
+      <c r="H57.0" t="n">
+        <v>20.45932416666666</v>
+      </c>
+      <c r="I57.0" t="n">
+        <v>423.6527791013467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Trip 78</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>15-03</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3011111111111111</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13.70472222222222</v>
+      </c>
+      <c r="E58" t="n">
+        <v>27.03488351745909</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14.77833896722222</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20.11109948944445</v>
+      </c>
+      <c r="H58.0" t="n">
+        <v>18.64639166666667</v>
+      </c>
+      <c r="I58.0" t="n">
+        <v>1422.070446833211</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Trip 80</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.778470555555556</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.05916944444444444</v>
+      </c>
+      <c r="E59" t="n">
+        <v>330.2621745655292</v>
+      </c>
+      <c r="F59" t="n">
+        <v>141.0072716952778</v>
+      </c>
+      <c r="G59" t="n">
+        <v>159.1837464280556</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Trip 82</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1.518333333333333</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.470277777777778</v>
+      </c>
+      <c r="E60" t="n">
+        <v>549.8669971693464</v>
+      </c>
+      <c r="F60" t="n">
+        <v>174.5228906536111</v>
+      </c>
+      <c r="G60" t="n">
+        <v>190.211478575</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Trip 83</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1.6325</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.412222222222222</v>
+      </c>
+      <c r="E61" t="n">
+        <v>514.9063915808761</v>
+      </c>
+      <c r="F61" t="n">
+        <v>157.1659336486111</v>
+      </c>
+      <c r="G61" t="n">
+        <v>183.1296085233333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Trip 84</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16-03</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3.817221944444444</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.692165</v>
+      </c>
+      <c r="E62" t="n">
+        <v>173.6435904456943</v>
+      </c>
+      <c r="F62" t="n">
+        <v>176.0681741988889</v>
+      </c>
+      <c r="G62" t="n">
+        <v>291.711583025</v>
+      </c>
+      <c r="H62.0" t="n">
+        <v>16.34697472222222</v>
+      </c>
+      <c r="I62.0" t="n">
+        <v>482.7063843436464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Trip 85</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.015555</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.846111666666667</v>
+      </c>
+      <c r="E63" t="n">
+        <v>111.0531840290796</v>
+      </c>
+      <c r="F63" t="n">
+        <v>48.88448818888889</v>
+      </c>
+      <c r="G63" t="n">
+        <v>82.64003187500001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Trip 87</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.09583416666666666</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8647230555555555</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22.05559167054405</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.942184773611111</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.664475429722224</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Trip 89</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1818263888888889</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.03758611111111111</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.74302579020018</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.902839182777778</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13.44531916222222</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Trip 90</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1.815555555555556</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9063888888888889</v>
+      </c>
+      <c r="E66" t="n">
+        <v>165.2109924081282</v>
+      </c>
+      <c r="F66" t="n">
+        <v>72.98723743722222</v>
+      </c>
+      <c r="G66" t="n">
+        <v>140.9793827797222</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Trip 93</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>17-03</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2.711110833333333</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.68974277777778</v>
+      </c>
+      <c r="E67" t="n">
+        <v>699.7623013046704</v>
+      </c>
+      <c r="F67" t="n">
+        <v>245.6312245463889</v>
+      </c>
+      <c r="G67" t="n">
+        <v>267.4802197061111</v>
+      </c>
+      <c r="H67.0" t="n">
+        <v>17.19890888888889</v>
+      </c>
+      <c r="I67.0" t="n">
+        <v>729.5550124151808</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Trip 94</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1.182222777777778</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.057221944444445</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23.28740018802572</v>
+      </c>
+      <c r="F68" t="n">
+        <v>30.96301728861111</v>
+      </c>
+      <c r="G68" t="n">
+        <v>86.81893662249999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Trip 95</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2791666666666667</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.451944166666667</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.505310922484767</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.980995103055554</v>
+      </c>
+      <c r="G69" t="n">
+        <v>19.9160972075</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Trip 96</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>18-03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2.676110833333333</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.84176444444445</v>
+      </c>
+      <c r="E70" t="n">
+        <v>206.7277261328929</v>
+      </c>
+      <c r="F70" t="n">
+        <v>144.0896185375</v>
+      </c>
+      <c r="G70" t="n">
+        <v>211.4531019883333</v>
+      </c>
+      <c r="H70.0" t="n">
+        <v>15.15120972222222</v>
+      </c>
+      <c r="I70.0" t="n">
+        <v>475.9226228934174</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Trip 97</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1.196943611111111</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3094452777777778</v>
+      </c>
+      <c r="E71" t="n">
+        <v>269.1948967605244</v>
+      </c>
+      <c r="F71" t="n">
+        <v>104.4056410355556</v>
+      </c>
+      <c r="G71" t="n">
+        <v>124.5119613808333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Trip 100</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>19-03</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1.199166666666667</v>
+      </c>
+      <c r="D72" t="n">
+        <v>22.32792194444444</v>
+      </c>
+      <c r="E72" t="n">
+        <v>135.8564109941358</v>
+      </c>
+      <c r="F72" t="n">
+        <v>72.1125378675</v>
+      </c>
+      <c r="G72" t="n">
+        <v>98.35623297166667</v>
+      </c>
+      <c r="H72.0" t="n">
+        <v>22.32792194444444</v>
+      </c>
+      <c r="I72.0" t="n">
+        <v>135.8564109941358</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Trip 103</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>22-03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1.860276666666667</v>
+      </c>
+      <c r="D73" t="n">
+        <v>26.09409916666667</v>
+      </c>
+      <c r="E73" t="n">
+        <v>178.7415834800737</v>
+      </c>
+      <c r="F73" t="n">
+        <v>129.8764132983334</v>
+      </c>
+      <c r="G73" t="n">
+        <v>149.3635591747222</v>
+      </c>
+      <c r="H73.0" t="n">
+        <v>27.18521027777778</v>
+      </c>
+      <c r="I73.0" t="n">
+        <v>2337.354565838261</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Trip 104</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4.216944722222222</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.091111111111111</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2158.612982358187</v>
+      </c>
+      <c r="F74" t="n">
+        <v>582.0493817608333</v>
+      </c>
+      <c r="G74" t="n">
+        <v>645.4652718622223</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Trip 107</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>25-03</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1.378889166666667</v>
+      </c>
+      <c r="D75" t="n">
+        <v>11.73824555555556</v>
+      </c>
+      <c r="E75" t="n">
+        <v>127.4352315715817</v>
+      </c>
+      <c r="F75" t="n">
+        <v>68.50102302305555</v>
+      </c>
+      <c r="G75" t="n">
+        <v>110.4853750730556</v>
+      </c>
+      <c r="H75.0" t="n">
+        <v>17.10824944444445</v>
+      </c>
+      <c r="I75.0" t="n">
+        <v>1107.997073175415</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Trip 108</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.2088891666666667</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.951391944444445</v>
+      </c>
+      <c r="E76" t="n">
+        <v>21.26932701169402</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.326133428611111</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15.68960343416667</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Trip 109</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6505555555555556</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9300002777777778</v>
+      </c>
+      <c r="E77" t="n">
+        <v>74.290752967665</v>
+      </c>
+      <c r="F77" t="n">
+        <v>34.62325783833333</v>
+      </c>
+      <c r="G77" t="n">
+        <v>53.49620803666667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Trip 110</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.475555555555556</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2408327777777778</v>
+      </c>
+      <c r="E78" t="n">
+        <v>251.3192127177563</v>
+      </c>
+      <c r="F78" t="n">
+        <v>91.57739069638887</v>
+      </c>
+      <c r="G78" t="n">
+        <v>130.1694832702778</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Trip 111</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1.743887777777778</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2477788888888889</v>
+      </c>
+      <c r="E79" t="n">
+        <v>633.6825489067182</v>
+      </c>
+      <c r="F79" t="n">
+        <v>202.7993564919444</v>
+      </c>
+      <c r="G79" t="n">
+        <v>218.0981494622222</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Trip 112</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>26-03</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2.155830277777778</v>
+      </c>
+      <c r="D80" t="n">
+        <v>13.26721166666667</v>
+      </c>
+      <c r="E80" t="n">
+        <v>340.7138647977956</v>
+      </c>
+      <c r="F80" t="n">
+        <v>148.0448399238889</v>
+      </c>
+      <c r="G80" t="n">
+        <v>196.1016952938889</v>
+      </c>
+      <c r="H80.0" t="n">
+        <v>13.26721166666667</v>
+      </c>
+      <c r="I80.0" t="n">
+        <v>340.7138647977956</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Trip 113</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>29-03</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1.555556111111111</v>
+      </c>
+      <c r="D81" t="n">
+        <v>22.27846944444444</v>
+      </c>
+      <c r="E81" t="n">
+        <v>195.325537086748</v>
+      </c>
+      <c r="F81" t="n">
+        <v>97.52156901111111</v>
+      </c>
+      <c r="G81" t="n">
+        <v>125.8721089138889</v>
+      </c>
+      <c r="H81.0" t="n">
+        <v>22.96819111111111</v>
+      </c>
+      <c r="I81.0" t="n">
+        <v>438.7945186043342</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Trip 114</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2.080833333333334</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6897216666666667</v>
+      </c>
+      <c r="E82" t="n">
+        <v>243.4689815175862</v>
+      </c>
+      <c r="F82" t="n">
+        <v>115.01733087</v>
+      </c>
+      <c r="G82" t="n">
+        <v>171.4148150586111</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Trip 115</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>31-03</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1.025000277777778</v>
+      </c>
+      <c r="D83" t="n">
+        <v>17.79441722222222</v>
+      </c>
+      <c r="E83" t="n">
+        <v>160.1568757351062</v>
+      </c>
+      <c r="F83" t="n">
+        <v>55.21859035777779</v>
+      </c>
+      <c r="G83" t="n">
+        <v>80.22656676166667</v>
+      </c>
+      <c r="H83.0" t="n">
+        <v>19.53719527777778</v>
+      </c>
+      <c r="I83.0" t="n">
+        <v>430.5930140746221</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Trip 116</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.7938886111111111</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.5544447222222222</v>
+      </c>
+      <c r="E84" t="n">
+        <v>64.65036018580838</v>
+      </c>
+      <c r="F84" t="n">
+        <v>33.99112918444445</v>
+      </c>
+      <c r="G84" t="n">
+        <v>62.594748165</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Trip 117</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.1727777777777778</v>
+      </c>
+      <c r="E85" t="n">
+        <v>63.94263657813427</v>
+      </c>
+      <c r="F85" t="n">
+        <v>52.87726727138889</v>
+      </c>
+      <c r="G85" t="n">
+        <v>74.33162407472223</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Trip 118</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.6355558333333333</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.015555555555556</v>
+      </c>
+      <c r="E86" t="n">
+        <v>141.8431415755733</v>
+      </c>
+      <c r="F86" t="n">
+        <v>47.56800073777778</v>
+      </c>
+      <c r="G86" t="n">
+        <v>67.53728579805556</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="108">
     <mergeCell ref="B2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
@@ -3428,6 +7339,60 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="B43"/>
+    <mergeCell ref="H43"/>
+    <mergeCell ref="I43"/>
+    <mergeCell ref="B44"/>
+    <mergeCell ref="H44"/>
+    <mergeCell ref="I44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="H57"/>
+    <mergeCell ref="I57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="I72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="B80"/>
+    <mergeCell ref="H80"/>
+    <mergeCell ref="I80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="I83:I86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
